--- a/TDS1.1.xlsx
+++ b/TDS1.1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Smash Street</t>
+  </si>
+  <si>
+    <t>PLZ</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -401,7 +404,7 @@
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +420,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -434,8 +440,11 @@
       <c r="E2">
         <v>45</v>
       </c>
+      <c r="F2">
+        <v>6010</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -451,8 +460,11 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>8050</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -468,8 +480,11 @@
       <c r="E4">
         <v>12</v>
       </c>
+      <c r="F4">
+        <v>9120</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -484,6 +499,9 @@
       </c>
       <c r="E5">
         <v>65</v>
+      </c>
+      <c r="F5">
+        <v>3122</v>
       </c>
     </row>
   </sheetData>
